--- a/Print3DServiceDescription.xlsx
+++ b/Print3DServiceDescription.xlsx
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="168">
-  <si>
-    <t>Addition to SM3 Semantic Data Model</t>
-  </si>
-  <si>
-    <t>SM2 Semantic Data Model Element</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="222">
   <si>
     <t>Print 3D IPP Attribute</t>
   </si>
@@ -33,9 +27,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>accuracy-units-supported Section</t>
-  </si>
-  <si>
     <t>CharsetConfigured</t>
   </si>
   <si>
@@ -258,33 +249,9 @@
     <t>material-diameter-supported</t>
   </si>
   <si>
-    <t>material-purpose-supported Section</t>
-  </si>
-  <si>
-    <t>material-rate-supported Section</t>
-  </si>
-  <si>
-    <t>material-rate-units-supported Section</t>
-  </si>
-  <si>
-    <t>material-shell-thickness-supported Section</t>
-  </si>
-  <si>
     <t>material-temperature-supported</t>
   </si>
   <si>
-    <t>material-type-supported Section</t>
-  </si>
-  <si>
-    <t>materials-col-default Section</t>
-  </si>
-  <si>
-    <t>materials-col-ready Section</t>
-  </si>
-  <si>
-    <t>materials-col-supported Section</t>
-  </si>
-  <si>
     <t>Section 8.3.3</t>
   </si>
   <si>
@@ -520,13 +487,208 @@
   </si>
   <si>
     <t>queued-job-count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharsetConfigured </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharsetSupported </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocumentFormatDefault </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GeneratedNaturalLanguageSupported </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdentifyActionsDefault </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdentifyActionsSupported </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JobConstraintsSupported </t>
+  </si>
+  <si>
+    <t>JobCreationAttributesSupported</t>
+  </si>
+  <si>
+    <t>MaterialDiameterSupported</t>
+  </si>
+  <si>
+    <t>MaterialTemperatureSupported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultipleDocumentJobsSupported </t>
+  </si>
+  <si>
+    <t>MultipleObjectHandlingDefault</t>
+  </si>
+  <si>
+    <t>MultipleObjectHandlingSupported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MultipleOperationTimeout </t>
+  </si>
+  <si>
+    <t>MultipleOperationTimeoutAction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaturalLanguageConfigured </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OperationsSupported </t>
+  </si>
+  <si>
+    <t>PrintAccuracyDefault</t>
+  </si>
+  <si>
+    <t>PrintAccuracySupported</t>
+  </si>
+  <si>
+    <t>PrintObjectsSupported</t>
+  </si>
+  <si>
+    <t>PrintQualityDefault</t>
+  </si>
+  <si>
+    <t>PrintQualitySupported</t>
+  </si>
+  <si>
+    <t>PrintRaftsDefault</t>
+  </si>
+  <si>
+    <t>PrintRaftsSupported</t>
+  </si>
+  <si>
+    <t>PrintSupportsDefault</t>
+  </si>
+  <si>
+    <t>PrintSupportsSupported</t>
+  </si>
+  <si>
+    <t>PrinterBedTemperatureDefault</t>
+  </si>
+  <si>
+    <t>PrinterIcons</t>
+  </si>
+  <si>
+    <t>QueuedJobCount</t>
+  </si>
+  <si>
+    <t>WhichJobsSupported</t>
+  </si>
+  <si>
+    <t>XriAuthenticationSupported</t>
+  </si>
+  <si>
+    <t>XriSecuritySupported</t>
+  </si>
+  <si>
+    <t>XriUriSchemeSupported</t>
+  </si>
+  <si>
+    <t>JobIdsSupported</t>
+  </si>
+  <si>
+    <t>MaterialPurposeSupported</t>
+  </si>
+  <si>
+    <t>MaterialRateSupported</t>
+  </si>
+  <si>
+    <t>MaterialRateUnitsSupported</t>
+  </si>
+  <si>
+    <t>MaterialShellThicknessSupported</t>
+  </si>
+  <si>
+    <t>MaterialTypeSupported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaterialsColDefault </t>
+  </si>
+  <si>
+    <t>MaterialsColReady</t>
+  </si>
+  <si>
+    <t>MaterialsColSupported</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>AccuracyUnitsSupported</t>
+  </si>
+  <si>
+    <t>Addition to SM3 Semantic Data Model ?</t>
+  </si>
+  <si>
+    <t>accuracy-units-supported</t>
+  </si>
+  <si>
+    <t>material-purpose-supported</t>
+  </si>
+  <si>
+    <t>material-rate-supported</t>
+  </si>
+  <si>
+    <t>material-rate-units-supported</t>
+  </si>
+  <si>
+    <t>material-shell-thickness-supported</t>
+  </si>
+  <si>
+    <t>material-type-supported</t>
+  </si>
+  <si>
+    <t>materials-col-default</t>
+  </si>
+  <si>
+    <t>materials-col-ready</t>
+  </si>
+  <si>
+    <t>materials-col-supported</t>
+  </si>
+  <si>
+    <t>SM2 Semantic Print Service Data Model Element</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FeaturesSupported </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If entry in A and C the same </t>
+  </si>
+  <si>
+    <t>may need more values for SM element</t>
+  </si>
+  <si>
+    <t>If entry in A but not in C</t>
+  </si>
+  <si>
+    <t>element inapplicable to Print3D Service</t>
+  </si>
+  <si>
+    <t>If entry in B but not in A</t>
+  </si>
+  <si>
+    <t>check whether it should be added</t>
+  </si>
+  <si>
+    <t>ServiceOrganizationalUnit</t>
+  </si>
+  <si>
+    <t>ServiceVolumeSupported</t>
+  </si>
+  <si>
+    <t>ServiceGetAttributesSupported</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,6 +703,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -563,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -571,6 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,907 +1034,1122 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K111"/>
+  <dimension ref="A2:K115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+      <selection activeCell="A111" sqref="A111:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.875" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
-    <col min="3" max="3" width="36.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="14.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
-        <v>148</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>27</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F24" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E27" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F28" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>54</v>
-      </c>
-      <c r="E34" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" t="s">
-        <v>148</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" t="s">
-        <v>148</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>56</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+    <row r="61" spans="1:6">
+      <c r="B61" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+      <c r="C61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5100.1099999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+      <c r="C62" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="2">
+        <v>5100.13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="B57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="2">
-        <v>5100.1099999999997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" t="s">
+      <c r="C63" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" t="s">
         <v>78</v>
       </c>
-      <c r="E58" s="2">
-        <v>5100.13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E59" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" t="s">
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" t="s">
+        <v>203</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E64" t="s">
         <v>80</v>
-      </c>
-      <c r="E60" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" t="s">
-        <v>81</v>
-      </c>
-      <c r="E61" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="E63" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="B64" t="s">
-        <v>84</v>
-      </c>
-      <c r="E64" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="B65" t="s">
-        <v>85</v>
+        <v>204</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>192</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="B66" t="s">
-        <v>86</v>
+        <v>205</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="B67" t="s">
-        <v>87</v>
+        <v>206</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="B68" t="s">
-        <v>88</v>
+        <v>77</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>98</v>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E69" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>99</v>
-      </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>208</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>196</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
-      </c>
-      <c r="F70" t="s">
-        <v>148</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="B71" t="s">
-        <v>103</v>
+        <v>209</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>197</v>
       </c>
       <c r="E71" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="B72" t="s">
-        <v>104</v>
+        <v>210</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="E72" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>105</v>
-      </c>
-      <c r="B73" t="s">
-        <v>106</v>
-      </c>
-      <c r="E73" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
       <c r="B74" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="2">
-        <v>5100.13</v>
+        <v>89</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E74" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
       <c r="B75" t="s">
-        <v>109</v>
+        <v>92</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" t="s">
-        <v>110</v>
-      </c>
       <c r="B76" t="s">
-        <v>111</v>
+        <v>93</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>112</v>
+        <v>94</v>
+      </c>
+      <c r="B77" t="s">
+        <v>95</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" t="s">
-        <v>113</v>
+      <c r="B78" t="s">
+        <v>96</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E78" s="2">
+        <v>5100.13</v>
       </c>
     </row>
     <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>97</v>
+      </c>
       <c r="B79" t="s">
-        <v>124</v>
+        <v>98</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E79" t="s">
-        <v>125</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>99</v>
+      </c>
       <c r="B80" t="s">
-        <v>133</v>
+        <v>100</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E80" t="s">
-        <v>126</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="B83" t="s">
-        <v>117</v>
+        <v>113</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E83" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="B84" t="s">
-        <v>118</v>
+        <v>122</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E84" t="s">
-        <v>18</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:6">
-      <c r="B85" t="s">
-        <v>119</v>
-      </c>
-      <c r="E85" t="s">
-        <v>18</v>
+      <c r="A85" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="B86" t="s">
-        <v>120</v>
-      </c>
-      <c r="E86" t="s">
-        <v>128</v>
+      <c r="A86" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="B87" t="s">
-        <v>121</v>
+        <v>106</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E87" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="B88" t="s">
-        <v>122</v>
+        <v>107</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E88" t="s">
-        <v>130</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="B89" t="s">
-        <v>123</v>
+        <v>108</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E89" t="s">
-        <v>131</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="B90" t="s">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="E90" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" t="s">
-        <v>134</v>
-      </c>
       <c r="B91" t="s">
-        <v>135</v>
+        <v>110</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E91" t="s">
-        <v>50</v>
-      </c>
-      <c r="F91" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="B92" t="s">
-        <v>136</v>
+        <v>111</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>181</v>
       </c>
       <c r="E92" t="s">
-        <v>50</v>
+        <v>119</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="B93" t="s">
-        <v>137</v>
+        <v>112</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>182</v>
       </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" t="s">
-        <v>138</v>
-      </c>
       <c r="B94" t="s">
-        <v>139</v>
+        <v>105</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>183</v>
       </c>
       <c r="E94" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="B95" t="s">
+        <v>124</v>
+      </c>
+      <c r="C95" t="s">
+        <v>123</v>
+      </c>
+      <c r="E95" t="s">
+        <v>47</v>
+      </c>
+      <c r="F95" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" t="s">
-        <v>141</v>
+      <c r="B96" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E96" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" t="s">
-        <v>142</v>
-      </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>126</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="E97" t="s">
-        <v>18</v>
-      </c>
-      <c r="F97" t="s">
-        <v>148</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>128</v>
+      </c>
+      <c r="C98" t="s">
+        <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="F98" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B99" t="s">
-        <v>147</v>
-      </c>
-      <c r="E99" t="s">
-        <v>18</v>
+        <v>129</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="B101" t="s">
-        <v>151</v>
+        <v>132</v>
+      </c>
+      <c r="C101" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" t="s">
+        <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>148</v>
-      </c>
-      <c r="J101" t="s">
-        <v>8</v>
-      </c>
-      <c r="K101" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="B102" t="s">
-        <v>154</v>
+        <v>134</v>
+      </c>
+      <c r="C102" t="s">
+        <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>50</v>
-      </c>
-      <c r="F102" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:11">
+      <c r="A103" t="s">
+        <v>135</v>
+      </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>136</v>
+      </c>
+      <c r="C103" t="s">
+        <v>135</v>
       </c>
       <c r="E103" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:11">
-      <c r="B104" t="s">
-        <v>164</v>
-      </c>
-      <c r="E104" t="s">
-        <v>165</v>
+      <c r="A104" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
-        <v>166</v>
-      </c>
-      <c r="E105" t="s">
-        <v>160</v>
+        <v>140</v>
+      </c>
+      <c r="C105" t="s">
+        <v>139</v>
+      </c>
+      <c r="J105" t="s">
+        <v>5</v>
+      </c>
+      <c r="K105" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>142</v>
+      </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>143</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>142</v>
       </c>
       <c r="E106" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:11">
-      <c r="A107" t="s">
-        <v>156</v>
+      <c r="B107" t="s">
+        <v>152</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="E107" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="B108" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="E108" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:11">
+      <c r="A109" t="s">
+        <v>144</v>
+      </c>
       <c r="B109" t="s">
-        <v>159</v>
+        <v>155</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>144</v>
       </c>
       <c r="E109" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="B110" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>185</v>
       </c>
       <c r="E110" t="s">
-        <v>160</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="B111" t="s">
-        <v>162</v>
+        <v>146</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="E111" t="s">
-        <v>160</v>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="B112" t="s">
+        <v>148</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E112" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="B113" t="s">
+        <v>150</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E113" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="B114" t="s">
+        <v>151</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E114" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>145</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E115" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
